--- a/MySample_TestScoreAnalysis.xlsx
+++ b/MySample_TestScoreAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liset\Desktop\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liset\Desktop\Portfolio\Test Score Analysis - Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB2A91E-07F9-40BB-8881-AB1E7995A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE14EA80-F3DE-41B4-BEE8-DA5E192581A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="793" activeTab="3" xr2:uid="{258F1C5B-9730-4F0D-BE5D-B23D601BB43B}"/>
+    <workbookView xWindow="28740" yWindow="1170" windowWidth="28860" windowHeight="13995" tabRatio="793" activeTab="4" xr2:uid="{258F1C5B-9730-4F0D-BE5D-B23D601BB43B}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleData" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="190" r:id="rId6"/>
-    <pivotCache cacheId="193" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -323,10 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -344,7 +343,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,93 +353,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Inherit"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -505,10 +423,85 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Inherit"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1128,8 +1121,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1255,21 +1247,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent6">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent6">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1334,24 +1326,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent6">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent6">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent6">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1417,7 +1406,6 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
@@ -1425,7 +1413,6 @@
               </a:gs>
               <a:gs pos="50000">
                 <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
@@ -1433,7 +1420,6 @@
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1498,21 +1484,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -7366,94 +7352,94 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8045,94 +8031,94 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8690,94 +8676,94 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10430,8 +10416,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -10557,21 +10542,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -10636,21 +10621,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -10715,21 +10700,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -12043,94 +12028,94 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12722,94 +12707,94 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13367,94 +13352,94 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26720,8 +26705,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="TypeofStudent">
@@ -26744,7 +26729,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -27764,8 +27749,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="29" name="TypeofStudent 1">
@@ -27788,7 +27773,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -29315,7 +29300,403 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6756DF7D-B19E-4343-866B-473D13D23176}" name="PivotTable77" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EE10D7E-203B-4677-92A2-D9503A2D72B5}" name="PivotTable71" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="V53:W56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" numFmtId="49" showAll="0">
+      <items count="31">
+        <item x="25"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of AvgAllResourcesLetter" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E75D7B2-9839-4BC7-A31F-FBE553794E23}" name="PivotTable68" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="V38:W43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" numFmtId="49" showAll="0">
+      <items count="31">
+        <item x="25"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="7"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of AvgAllResources" fld="6" subtotal="count" baseField="7" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27E8FC5C-2763-41CF-AAB5-DAD9441E7C8B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="49" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of TypeofStudent" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6756DF7D-B19E-4343-866B-473D13D23176}" name="PivotTable77" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A27:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" numFmtId="49" showAll="0"/>
@@ -29374,7 +29755,7 @@
     <dataField name="Count of StudentID" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -29543,8 +29924,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F293A480-1398-4D53-AB30-C3C27454F5FB}" name="PivotTable76" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F293A480-1398-4D53-AB30-C3C27454F5FB}" name="PivotTable76" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A16:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" numFmtId="49" showAll="0"/>
@@ -29634,8 +30015,104 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98953C7C-6892-45C1-8DC6-7A6FEB5B5722}" name="PivotTable72" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34F0D227-D7F5-43D8-939F-07D4067D5F90}" name="TypeStCount" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Type of Student">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField numFmtId="49" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Number of Students" fld="1" subtotal="count" baseField="1" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98953C7C-6892-45C1-8DC6-7A6FEB5B5722}" name="PivotTable72" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="V69:W73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="49" showAll="0">
@@ -29732,498 +30209,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EE10D7E-203B-4677-92A2-D9503A2D72B5}" name="PivotTable71" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="V53:W56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" numFmtId="49" showAll="0">
-      <items count="31">
-        <item x="25"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="24"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="27"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="8"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of AvgAllResourcesLetter" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E75D7B2-9839-4BC7-A31F-FBE553794E23}" name="PivotTable68" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="V38:W43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" numFmtId="49" showAll="0">
-      <items count="31">
-        <item x="25"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="24"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="27"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="0"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="7"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of AvgAllResources" fld="6" subtotal="count" baseField="7" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27E8FC5C-2763-41CF-AAB5-DAD9441E7C8B}" name="PivotTable3" cacheId="193" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField numFmtId="49" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of TypeofStudent" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="13">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34F0D227-D7F5-43D8-939F-07D4067D5F90}" name="TypeStCount" cacheId="193" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Type of Student">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField numFmtId="49" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Number of Students" fld="1" subtotal="count" baseField="1" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_TypeofStudent" xr10:uid="{E7D1821F-4545-45F7-B43B-DC41F0F45A05}" sourceName="TypeofStudent">
   <pivotTables>
@@ -30258,45 +30243,45 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B37E5C10-660A-4375-BA07-DC2CB55114CF}" name="SampleData" displayName="SampleData" ref="A1:P31" totalsRowShown="0">
   <autoFilter ref="A1:P31" xr:uid="{B37E5C10-660A-4375-BA07-DC2CB55114CF}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{612A69AA-B7F1-4C5A-B86F-233007C6A414}" name="StudentID" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{612A69AA-B7F1-4C5A-B86F-233007C6A414}" name="StudentID" dataDxfId="31">
       <calculatedColumnFormula>RANDBETWEEN(1000000000,9999999999)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{8C132B92-8629-44E8-92AB-35A68A686297}" name="TypeofStudent"/>
     <tableColumn id="14" xr3:uid="{C00E5064-FA77-4F7F-BB0F-F671DE5E13F2}" name="Subject"/>
-    <tableColumn id="3" xr3:uid="{5E00EAA7-276F-47D6-AB5C-FD0F6620F069}" name="AvgLR1" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{1B9ED013-8614-4239-8544-293729A12EAD}" name="AvgLR2" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{3F53581D-95E3-4C19-A61D-BA991D899CD1}" name="AvgLR3" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{3F535B10-7F07-43D3-9351-34E1439575C0}" name="AvgAllResources" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{5E00EAA7-276F-47D6-AB5C-FD0F6620F069}" name="AvgLR1" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{1B9ED013-8614-4239-8544-293729A12EAD}" name="AvgLR2" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{3F53581D-95E3-4C19-A61D-BA991D899CD1}" name="AvgLR3" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{3F535B10-7F07-43D3-9351-34E1439575C0}" name="AvgAllResources" dataDxfId="27">
       <calculatedColumnFormula>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{321704C3-5332-4FCC-9591-9CD9A203D67D}" name="LetterGradeLR1" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{321704C3-5332-4FCC-9591-9CD9A203D67D}" name="LetterGradeLR1" dataDxfId="26">
       <calculatedColumnFormula>IF(D2&gt;=90,"A",IF(D2&gt;=80,"B",IF(D2&gt;=70,"C",IF(D2&gt;=60,"D","F"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{AE706E29-0092-458B-8E69-7CB622600A95}" name="LetterGradeLR2" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{AE706E29-0092-458B-8E69-7CB622600A95}" name="LetterGradeLR2" dataDxfId="25">
       <calculatedColumnFormula>IF(E2&gt;=90,"A",IF(E2&gt;=80,"B",IF(E2&gt;=70,"C",IF(E2&gt;=60,"D","F"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{06978EA4-6F75-4BB0-8BF1-C3C1100A4997}" name="LetterGradeLR3" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{06978EA4-6F75-4BB0-8BF1-C3C1100A4997}" name="LetterGradeLR3" dataDxfId="24">
       <calculatedColumnFormula>IF(F2&gt;=90,"A",IF(F2&gt;=80,"B",IF(F2&gt;=70,"C",IF(F2&gt;=60,"D","F"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A1D54FE3-C34C-4DA7-A10C-DF1DC9874E78}" name="AvgAllResourcesLetter" dataDxfId="6">
+    <tableColumn id="18" xr3:uid="{A1D54FE3-C34C-4DA7-A10C-DF1DC9874E78}" name="AvgAllResourcesLetter" dataDxfId="23">
       <calculatedColumnFormula>IF(G2&gt;=90,"A",IF(G2&gt;=80,"B",IF(G2&gt;=70,"C",IF(G2&gt;=60,"D","F"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{671EEB72-A008-4D2A-8A5E-231D3D0155AF}" name="EOC-1" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{671EEB72-A008-4D2A-8A5E-231D3D0155AF}" name="EOC-1" dataDxfId="22">
       <calculatedColumnFormula>IF(B2="REGULAR", RANDBETWEEN(1,5),
  IF(B2="ESE", RANDBETWEEN(1,3),
  IF(B2="ESOL", RANDBETWEEN(2,5),
  IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4383834D-88A7-4891-BB2C-5BD2D864CE81}" name="EOC-2" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{4383834D-88A7-4891-BB2C-5BD2D864CE81}" name="EOC-2" dataDxfId="21">
       <calculatedColumnFormula>IF(B2="REGULAR", RANDBETWEEN(1,5), IF(B2="ESE", RANDBETWEEN(1,3), IF(B2="ESOL", RANDBETWEEN(2,5), IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{788FD199-69D9-4C9A-B7F4-4B13735278B5}" name="EOC-3" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{788FD199-69D9-4C9A-B7F4-4B13735278B5}" name="EOC-3" dataDxfId="20">
       <calculatedColumnFormula>IF(B2="REGULAR", RANDBETWEEN(1,5), IF(B2="ESE", RANDBETWEEN(1,3), IF(B2="ESOL", RANDBETWEEN(2,5), IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{24D72205-D752-4D8B-938B-058A59B90639}" name="TestScore" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{24D72205-D752-4D8B-938B-058A59B90639}" name="TestScore" dataDxfId="19">
       <calculatedColumnFormula>RANDBETWEEN(20,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{F956117C-A51B-4BE5-A3A0-2CDE0C0E1CB4}" name="TestScoreLetter" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{F956117C-A51B-4BE5-A3A0-2CDE0C0E1CB4}" name="TestScoreLetter" dataDxfId="18">
       <calculatedColumnFormula>IF(O2&gt;=90,"A",IF(O2&gt;=80,"B",IF(O2&gt;=70,"C",IF(O2&gt;=60,"D","F"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -30305,48 +30290,48 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22F62617-7D0E-4A25-8F1B-F6DF8FD25364}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22F62617-7D0E-4A25-8F1B-F6DF8FD25364}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:B5" xr:uid="{22F62617-7D0E-4A25-8F1B-F6DF8FD25364}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5F93A496-F016-40D0-B385-1BA98B15C598}" name="TypeOfStudent" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{DDAAB5F7-0BAE-4644-B81E-874C6DB7F499}" name="Code" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{5F93A496-F016-40D0-B385-1BA98B15C598}" name="TypeOfStudent" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DDAAB5F7-0BAE-4644-B81E-874C6DB7F499}" name="Code" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9430C281-71E6-469A-8BF0-1EAAFFF639A1}" name="Table2" displayName="Table2" ref="D1:E6" totalsRowShown="0" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9430C281-71E6-469A-8BF0-1EAAFFF639A1}" name="Table2" displayName="Table2" ref="D1:E6" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="D1:E6" xr:uid="{9430C281-71E6-469A-8BF0-1EAAFFF639A1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FC481F32-538E-4809-9C4D-9AFBCBCBD09C}" name="LetterGrade" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{644EE8C3-8F02-4770-88AF-A445D807518E}" name="GradeInterval" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{FC481F32-538E-4809-9C4D-9AFBCBCBD09C}" name="LetterGrade" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{644EE8C3-8F02-4770-88AF-A445D807518E}" name="GradeInterval" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{13A3E16E-AD05-490B-A9A5-77AE0827224A}" name="Table3" displayName="Table3" ref="A9:F14" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{13A3E16E-AD05-490B-A9A5-77AE0827224A}" name="Table3" displayName="Table3" ref="A9:F14" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A9:F14" xr:uid="{13A3E16E-AD05-490B-A9A5-77AE0827224A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4921A0CF-CFD1-4A7E-A0E2-579AF2FB1D02}" name="SubjectName" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{F08AB94F-227F-4A29-AE09-E2608B7CF07B}" name="GradeLvl" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{7CFB3817-65E3-4723-807D-BD39D8F8D3EC}" name="Code" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{10CBC284-8C2A-4AF2-BEA5-8A50EB5B280A}" name="EOC-1" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{A12226EB-636B-404A-A16F-C3823964EF2A}" name="EOC-2" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{55048FCA-DE60-4B0D-84AA-1A24C6C16D98}" name="EOC-3" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{4921A0CF-CFD1-4A7E-A0E2-579AF2FB1D02}" name="SubjectName" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F08AB94F-227F-4A29-AE09-E2608B7CF07B}" name="GradeLvl" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7CFB3817-65E3-4723-807D-BD39D8F8D3EC}" name="Code" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{10CBC284-8C2A-4AF2-BEA5-8A50EB5B280A}" name="EOC-1" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A12226EB-636B-404A-A16F-C3823964EF2A}" name="EOC-2" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{55048FCA-DE60-4B0D-84AA-1A24C6C16D98}" name="EOC-3" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4C275B3-F4DC-4EA0-9ABD-747EFB3ABFFE}" name="Table4" displayName="Table4" ref="A17:B20" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4C275B3-F4DC-4EA0-9ABD-747EFB3ABFFE}" name="Table4" displayName="Table4" ref="A17:B20" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A17:B20" xr:uid="{D4C275B3-F4DC-4EA0-9ABD-747EFB3ABFFE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1D50052-C65C-4346-BF02-F5C5CDA4E5D3}" name="OnlineResourcesName" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{08A00871-58CE-478D-A46C-6296BE7AB135}" name="Code" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{C1D50052-C65C-4346-BF02-F5C5CDA4E5D3}" name="OnlineResourcesName" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{08A00871-58CE-478D-A46C-6296BE7AB135}" name="Code" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -30723,7 +30708,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>9474162348</v>
       </c>
       <c r="B2" t="s">
@@ -30732,61 +30717,61 @@
       <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>68</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>90</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>21</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>59.666666666666664</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="4" t="str">
         <f t="shared" ref="H2:H18" si="0">IF(D2&gt;=90,"A",IF(D2&gt;=80,"B",IF(D2&gt;=70,"C",IF(D2&gt;=60,"D","F"))))</f>
         <v>D</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f>IF(E2&gt;=90,"A",IF(E2&gt;=80,"B",IF(E2&gt;=70,"C",IF(E2&gt;=60,"D","F"))))</f>
+      <c r="I2" s="4" t="str">
+        <f t="shared" ref="I2:I31" si="1">IF(E2&gt;=90,"A",IF(E2&gt;=80,"B",IF(E2&gt;=70,"C",IF(E2&gt;=60,"D","F"))))</f>
         <v>A</v>
       </c>
-      <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J18" si="1">IF(F2&gt;=90,"A",IF(F2&gt;=80,"B",IF(F2&gt;=70,"C",IF(F2&gt;=60,"D","F"))))</f>
+      <c r="J2" s="4" t="str">
+        <f t="shared" ref="J2:J18" si="2">IF(F2&gt;=90,"A",IF(F2&gt;=80,"B",IF(F2&gt;=70,"C",IF(F2&gt;=60,"D","F"))))</f>
         <v>F</v>
       </c>
-      <c r="K2" s="15" t="str">
-        <f t="shared" ref="K2:K31" si="2">IF(G2&gt;=90,"A",IF(G2&gt;=80,"B",IF(G2&gt;=70,"C",IF(G2&gt;=60,"D","F"))))</f>
+      <c r="K2" s="14" t="str">
+        <f t="shared" ref="K2:K31" si="3">IF(G2&gt;=90,"A",IF(G2&gt;=80,"B",IF(G2&gt;=70,"C",IF(G2&gt;=60,"D","F"))))</f>
         <v>F</v>
       </c>
-      <c r="L2" s="4">
-        <f ca="1">IF(B2="REGULAR", RANDBETWEEN(1,5),
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L31" ca="1" si="4">IF(B2="REGULAR", RANDBETWEEN(1,5),
  IF(B2="ESE", RANDBETWEEN(1,3),
  IF(B2="ESOL", RANDBETWEEN(2,5),
  IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="M2" s="8">
-        <f ca="1">IF(B2="REGULAR", RANDBETWEEN(1,5), IF(B2="ESE", RANDBETWEEN(1,3), IF(B2="ESOL", RANDBETWEEN(2,5), IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</f>
         <v>2</v>
       </c>
-      <c r="N2" s="8">
-        <f ca="1">IF(B2="REGULAR", RANDBETWEEN(1,5), IF(B2="ESE", RANDBETWEEN(1,3), IF(B2="ESOL", RANDBETWEEN(2,5), IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="13">
-        <f t="shared" ref="O2:O31" ca="1" si="3">RANDBETWEEN(20,100)</f>
-        <v>50</v>
-      </c>
-      <c r="P2" s="16" t="str">
-        <f t="shared" ref="P2:P31" ca="1" si="4">IF(O2&gt;=90,"A",IF(O2&gt;=80,"B",IF(O2&gt;=70,"C",IF(O2&gt;=60,"D","F"))))</f>
-        <v>F</v>
+      <c r="M2" s="7">
+        <f t="shared" ref="M2:M31" ca="1" si="5">IF(B2="REGULAR", RANDBETWEEN(1,5), IF(B2="ESE", RANDBETWEEN(1,3), IF(B2="ESOL", RANDBETWEEN(2,5), IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</f>
+        <v>4</v>
+      </c>
+      <c r="N2" s="7">
+        <f t="shared" ref="N2:N31" ca="1" si="6">IF(B2="REGULAR", RANDBETWEEN(1,5), IF(B2="ESE", RANDBETWEEN(1,3), IF(B2="ESOL", RANDBETWEEN(2,5), IF(B2="GIFTED", RANDBETWEEN(3,5),""))))</f>
+        <v>3</v>
+      </c>
+      <c r="O2" s="12">
+        <f t="shared" ref="O2:O31" ca="1" si="7">RANDBETWEEN(20,100)</f>
+        <v>73</v>
+      </c>
+      <c r="P2" s="15" t="str">
+        <f t="shared" ref="P2:P31" ca="1" si="8">IF(O2&gt;=90,"A",IF(O2&gt;=80,"B",IF(O2&gt;=70,"C",IF(O2&gt;=60,"D","F"))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1054207930</v>
       </c>
       <c r="B3" t="s">
@@ -30795,1821 +30780,1734 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>99</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>91</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>29</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>73</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="I3" s="5" t="str">
-        <f>IF(E3&gt;=90,"A",IF(E3&gt;=80,"B",IF(E3&gt;=70,"C",IF(E3&gt;=60,"D","F"))))</f>
+      <c r="I3" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K3" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O3" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="P3" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>6370787313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>80</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="I4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K3" s="14" t="str">
+        <v>B</v>
+      </c>
+      <c r="J4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="L3" s="4">
-        <f ca="1">IF(B3="REGULAR", RANDBETWEEN(1,5),
- IF(B3="ESE", RANDBETWEEN(1,3),
- IF(B3="ESOL", RANDBETWEEN(2,5),
- IF(B3="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="K4" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="M3" s="4">
-        <f ca="1">IF(B3="REGULAR", RANDBETWEEN(1,5), IF(B3="ESE", RANDBETWEEN(1,3), IF(B3="ESOL", RANDBETWEEN(2,5), IF(B3="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="N3" s="4">
-        <f ca="1">IF(B3="REGULAR", RANDBETWEEN(1,5), IF(B3="ESE", RANDBETWEEN(1,3), IF(B3="ESOL", RANDBETWEEN(2,5), IF(B3="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="M4" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="O3" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="P3" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+      <c r="N4" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="P4" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>D</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3">
-        <v>6370787313</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
+        <v>5670917585</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4">
-        <v>82</v>
-      </c>
-      <c r="E4" s="4">
-        <v>83</v>
-      </c>
-      <c r="F4" s="4">
-        <v>75</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="D5" s="3">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44</v>
+      </c>
+      <c r="G5" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>80</v>
-      </c>
-      <c r="H4" s="5" t="str">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="I4" s="5" t="str">
-        <f>IF(E4&gt;=90,"A",IF(E4&gt;=80,"B",IF(E4&gt;=70,"C",IF(E4&gt;=60,"D","F"))))</f>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K5" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="P5" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2">
+        <v>3267581084</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3">
+        <v>39</v>
+      </c>
+      <c r="G6" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>64.333333333333329</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="I6" s="4" t="str">
         <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K6" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="P6" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2">
+        <v>4279733407</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3">
+        <v>98</v>
+      </c>
+      <c r="E7" s="3">
+        <v>89</v>
+      </c>
+      <c r="F7" s="3">
+        <v>46</v>
+      </c>
+      <c r="G7" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>77.666666666666671</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K7" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="K4" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L4" s="4">
-        <f ca="1">IF(B4="REGULAR", RANDBETWEEN(1,5),
- IF(B4="ESE", RANDBETWEEN(1,3),
- IF(B4="ESOL", RANDBETWEEN(2,5),
- IF(B4="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L7" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M4" s="4">
-        <f ca="1">IF(B4="REGULAR", RANDBETWEEN(1,5), IF(B4="ESE", RANDBETWEEN(1,3), IF(B4="ESOL", RANDBETWEEN(2,5), IF(B4="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <f ca="1">IF(B4="REGULAR", RANDBETWEEN(1,5), IF(B4="ESE", RANDBETWEEN(1,3), IF(B4="ESOL", RANDBETWEEN(2,5), IF(B4="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="M7" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-      <c r="O4" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="P4" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+      <c r="N7" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="P7" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="3">
-        <v>5670917585</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4">
-        <v>89</v>
-      </c>
-      <c r="E5" s="4">
-        <v>81</v>
-      </c>
-      <c r="F5" s="4">
-        <v>44</v>
-      </c>
-      <c r="G5" s="13">
+    <row r="8" spans="1:16">
+      <c r="A8" s="2">
+        <v>5850932144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3">
+        <v>97</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43</v>
+      </c>
+      <c r="G8" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>71.333333333333329</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K8" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="P8" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
+        <v>5911057458</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3">
+        <v>97</v>
+      </c>
+      <c r="F9" s="3">
+        <v>38</v>
+      </c>
+      <c r="G9" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>72.333333333333329</v>
+      </c>
+      <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="I5" s="5" t="str">
-        <f>IF(E5&gt;=90,"A",IF(E5&gt;=80,"B",IF(E5&gt;=70,"C",IF(E5&gt;=60,"D","F"))))</f>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K9" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="P9" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>B</v>
       </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K5" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L5" s="4">
-        <f ca="1">IF(B5="REGULAR", RANDBETWEEN(1,5),
- IF(B5="ESE", RANDBETWEEN(1,3),
- IF(B5="ESOL", RANDBETWEEN(2,5),
- IF(B5="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="M5" s="4">
-        <f ca="1">IF(B5="REGULAR", RANDBETWEEN(1,5), IF(B5="ESE", RANDBETWEEN(1,3), IF(B5="ESOL", RANDBETWEEN(2,5), IF(B5="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N5" s="4">
-        <f ca="1">IF(B5="REGULAR", RANDBETWEEN(1,5), IF(B5="ESE", RANDBETWEEN(1,3), IF(B5="ESOL", RANDBETWEEN(2,5), IF(B5="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O5" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="P5" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3">
-        <v>3267581084</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="2">
+        <v>2118757625</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D10" s="3">
         <v>66</v>
       </c>
-      <c r="E6" s="4">
-        <v>88</v>
-      </c>
-      <c r="F6" s="4">
-        <v>39</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="E10" s="3">
+        <v>99</v>
+      </c>
+      <c r="F10" s="3">
+        <v>51</v>
+      </c>
+      <c r="G10" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>64.333333333333329</v>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>72</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="I6" s="5" t="str">
-        <f>IF(E6&gt;=90,"A",IF(E6&gt;=80,"B",IF(E6&gt;=70,"C",IF(E6&gt;=60,"D","F"))))</f>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K10" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="P10" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2">
+        <v>3657696641</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43</v>
+      </c>
+      <c r="G11" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="I11" s="4" t="str">
         <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="K6" s="14" t="str">
+      <c r="K11" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="P11" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2">
+        <v>9251273766</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3">
+        <v>97</v>
+      </c>
+      <c r="E12" s="3">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3">
+        <v>36</v>
+      </c>
+      <c r="G12" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>71.333333333333329</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K12" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="P12" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2">
+        <v>6985702553</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3">
+        <v>91</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>59</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K13" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="P13" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2">
+        <v>2251686230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3">
+        <v>81</v>
+      </c>
+      <c r="E14" s="3">
+        <v>86</v>
+      </c>
+      <c r="F14" s="3">
+        <v>22</v>
+      </c>
+      <c r="G14" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>63</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K14" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="P14" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2">
+        <v>7836238288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3">
+        <v>60</v>
+      </c>
+      <c r="G15" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>73.666666666666671</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="L6" s="4">
-        <f ca="1">IF(B6="REGULAR", RANDBETWEEN(1,5),
- IF(B6="ESE", RANDBETWEEN(1,3),
- IF(B6="ESOL", RANDBETWEEN(2,5),
- IF(B6="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="K15" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="P15" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2">
+        <v>6107048882</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3">
+        <v>83</v>
+      </c>
+      <c r="E16" s="3">
+        <v>91</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K16" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="M6" s="4">
-        <f ca="1">IF(B6="REGULAR", RANDBETWEEN(1,5), IF(B6="ESE", RANDBETWEEN(1,3), IF(B6="ESOL", RANDBETWEEN(2,5), IF(B6="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="N16" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="P16" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2">
+        <v>1129763904</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3">
+        <v>58</v>
+      </c>
+      <c r="G17" s="12">
+        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
+        <v>79</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="K17" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
-      <c r="N6" s="4">
-        <f ca="1">IF(B6="REGULAR", RANDBETWEEN(1,5), IF(B6="ESE", RANDBETWEEN(1,3), IF(B6="ESOL", RANDBETWEEN(2,5), IF(B6="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="P6" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+      <c r="M17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="P17" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="3">
-        <v>4279733407</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4">
-        <v>98</v>
-      </c>
-      <c r="E7" s="4">
-        <v>89</v>
-      </c>
-      <c r="F7" s="4">
-        <v>46</v>
-      </c>
-      <c r="G7" s="13">
+    <row r="18" spans="1:16">
+      <c r="A18" s="2">
+        <v>5551397430</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3">
+        <v>62</v>
+      </c>
+      <c r="G18" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f>IF(E7&gt;=90,"A",IF(E7&gt;=80,"B",IF(E7&gt;=70,"C",IF(E7&gt;=60,"D","F"))))</f>
-        <v>B</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K7" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L7" s="4">
-        <f ca="1">IF(B7="REGULAR", RANDBETWEEN(1,5),
- IF(B7="ESE", RANDBETWEEN(1,3),
- IF(B7="ESOL", RANDBETWEEN(2,5),
- IF(B7="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="M7" s="4">
-        <f ca="1">IF(B7="REGULAR", RANDBETWEEN(1,5), IF(B7="ESE", RANDBETWEEN(1,3), IF(B7="ESOL", RANDBETWEEN(2,5), IF(B7="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N7" s="4">
-        <f ca="1">IF(B7="REGULAR", RANDBETWEEN(1,5), IF(B7="ESE", RANDBETWEEN(1,3), IF(B7="ESOL", RANDBETWEEN(2,5), IF(B7="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="P7" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="3">
-        <v>5850932144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="4">
-        <v>74</v>
-      </c>
-      <c r="E8" s="4">
-        <v>97</v>
-      </c>
-      <c r="F8" s="4">
-        <v>43</v>
-      </c>
-      <c r="G8" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>71.333333333333329</v>
-      </c>
-      <c r="H8" s="5" t="str">
+      <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="I8" s="5" t="str">
-        <f>IF(E8&gt;=90,"A",IF(E8&gt;=80,"B",IF(E8&gt;=70,"C",IF(E8&gt;=60,"D","F"))))</f>
+      <c r="I18" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K8" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L8" s="4">
-        <f ca="1">IF(B8="REGULAR", RANDBETWEEN(1,5),
- IF(B8="ESE", RANDBETWEEN(1,3),
- IF(B8="ESOL", RANDBETWEEN(2,5),
- IF(B8="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="M8" s="4">
-        <f ca="1">IF(B8="REGULAR", RANDBETWEEN(1,5), IF(B8="ESE", RANDBETWEEN(1,3), IF(B8="ESOL", RANDBETWEEN(2,5), IF(B8="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N8" s="4">
-        <f ca="1">IF(B8="REGULAR", RANDBETWEEN(1,5), IF(B8="ESE", RANDBETWEEN(1,3), IF(B8="ESOL", RANDBETWEEN(2,5), IF(B8="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="P8" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="3">
-        <v>5911057458</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4">
-        <v>82</v>
-      </c>
-      <c r="E9" s="4">
-        <v>97</v>
-      </c>
-      <c r="F9" s="4">
-        <v>38</v>
-      </c>
-      <c r="G9" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>72.333333333333329</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f>IF(E9&gt;=90,"A",IF(E9&gt;=80,"B",IF(E9&gt;=70,"C",IF(E9&gt;=60,"D","F"))))</f>
-        <v>A</v>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K9" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L9" s="4">
-        <f ca="1">IF(B9="REGULAR", RANDBETWEEN(1,5),
- IF(B9="ESE", RANDBETWEEN(1,3),
- IF(B9="ESOL", RANDBETWEEN(2,5),
- IF(B9="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="M9" s="4">
-        <f ca="1">IF(B9="REGULAR", RANDBETWEEN(1,5), IF(B9="ESE", RANDBETWEEN(1,3), IF(B9="ESOL", RANDBETWEEN(2,5), IF(B9="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="N9" s="4">
-        <f ca="1">IF(B9="REGULAR", RANDBETWEEN(1,5), IF(B9="ESE", RANDBETWEEN(1,3), IF(B9="ESOL", RANDBETWEEN(2,5), IF(B9="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="P9" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="3">
-        <v>2118757625</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4">
-        <v>99</v>
-      </c>
-      <c r="F10" s="4">
-        <v>51</v>
-      </c>
-      <c r="G10" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>72</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f>IF(E10&gt;=90,"A",IF(E10&gt;=80,"B",IF(E10&gt;=70,"C",IF(E10&gt;=60,"D","F"))))</f>
-        <v>A</v>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K10" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L10" s="4">
-        <f ca="1">IF(B10="REGULAR", RANDBETWEEN(1,5),
- IF(B10="ESE", RANDBETWEEN(1,3),
- IF(B10="ESOL", RANDBETWEEN(2,5),
- IF(B10="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="M10" s="4">
-        <f ca="1">IF(B10="REGULAR", RANDBETWEEN(1,5), IF(B10="ESE", RANDBETWEEN(1,3), IF(B10="ESOL", RANDBETWEEN(2,5), IF(B10="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <f ca="1">IF(B10="REGULAR", RANDBETWEEN(1,5), IF(B10="ESE", RANDBETWEEN(1,3), IF(B10="ESOL", RANDBETWEEN(2,5), IF(B10="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="O10" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="P10" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="3">
-        <v>3657696641</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4">
-        <v>83</v>
-      </c>
-      <c r="E11" s="4">
-        <v>86</v>
-      </c>
-      <c r="F11" s="4">
-        <v>43</v>
-      </c>
-      <c r="G11" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>70.666666666666671</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f>IF(E11&gt;=90,"A",IF(E11&gt;=80,"B",IF(E11&gt;=70,"C",IF(E11&gt;=60,"D","F"))))</f>
-        <v>B</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K11" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L11" s="4">
-        <f ca="1">IF(B11="REGULAR", RANDBETWEEN(1,5),
- IF(B11="ESE", RANDBETWEEN(1,3),
- IF(B11="ESOL", RANDBETWEEN(2,5),
- IF(B11="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="M11" s="4">
-        <f ca="1">IF(B11="REGULAR", RANDBETWEEN(1,5), IF(B11="ESE", RANDBETWEEN(1,3), IF(B11="ESOL", RANDBETWEEN(2,5), IF(B11="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N11" s="4">
-        <f ca="1">IF(B11="REGULAR", RANDBETWEEN(1,5), IF(B11="ESE", RANDBETWEEN(1,3), IF(B11="ESOL", RANDBETWEEN(2,5), IF(B11="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="P11" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="3">
-        <v>9251273766</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="4">
-        <v>97</v>
-      </c>
-      <c r="E12" s="4">
-        <v>81</v>
-      </c>
-      <c r="F12" s="4">
-        <v>36</v>
-      </c>
-      <c r="G12" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>71.333333333333329</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f>IF(E12&gt;=90,"A",IF(E12&gt;=80,"B",IF(E12&gt;=70,"C",IF(E12&gt;=60,"D","F"))))</f>
-        <v>B</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L12" s="4">
-        <f ca="1">IF(B12="REGULAR", RANDBETWEEN(1,5),
- IF(B12="ESE", RANDBETWEEN(1,3),
- IF(B12="ESOL", RANDBETWEEN(2,5),
- IF(B12="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <f ca="1">IF(B12="REGULAR", RANDBETWEEN(1,5), IF(B12="ESE", RANDBETWEEN(1,3), IF(B12="ESOL", RANDBETWEEN(2,5), IF(B12="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <f ca="1">IF(B12="REGULAR", RANDBETWEEN(1,5), IF(B12="ESE", RANDBETWEEN(1,3), IF(B12="ESOL", RANDBETWEEN(2,5), IF(B12="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O12" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="P12" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="3">
-        <v>6985702553</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4">
-        <v>82</v>
-      </c>
-      <c r="E13" s="4">
-        <v>91</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-      <c r="G13" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>59</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f>IF(E13&gt;=90,"A",IF(E13&gt;=80,"B",IF(E13&gt;=70,"C",IF(E13&gt;=60,"D","F"))))</f>
-        <v>A</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K13" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="L13" s="4">
-        <f ca="1">IF(B13="REGULAR", RANDBETWEEN(1,5),
- IF(B13="ESE", RANDBETWEEN(1,3),
- IF(B13="ESOL", RANDBETWEEN(2,5),
- IF(B13="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="M13" s="4">
-        <f ca="1">IF(B13="REGULAR", RANDBETWEEN(1,5), IF(B13="ESE", RANDBETWEEN(1,3), IF(B13="ESOL", RANDBETWEEN(2,5), IF(B13="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="N13" s="4">
-        <f ca="1">IF(B13="REGULAR", RANDBETWEEN(1,5), IF(B13="ESE", RANDBETWEEN(1,3), IF(B13="ESOL", RANDBETWEEN(2,5), IF(B13="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="O13" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="P13" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="3">
-        <v>2251686230</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4">
-        <v>81</v>
-      </c>
-      <c r="E14" s="4">
-        <v>86</v>
-      </c>
-      <c r="F14" s="4">
-        <v>22</v>
-      </c>
-      <c r="G14" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>63</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f>IF(E14&gt;=90,"A",IF(E14&gt;=80,"B",IF(E14&gt;=70,"C",IF(E14&gt;=60,"D","F"))))</f>
-        <v>B</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K14" s="14" t="str">
+      <c r="J18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="L14" s="4">
-        <f ca="1">IF(B14="REGULAR", RANDBETWEEN(1,5),
- IF(B14="ESE", RANDBETWEEN(1,3),
- IF(B14="ESOL", RANDBETWEEN(2,5),
- IF(B14="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="M14" s="4">
-        <f ca="1">IF(B14="REGULAR", RANDBETWEEN(1,5), IF(B14="ESE", RANDBETWEEN(1,3), IF(B14="ESOL", RANDBETWEEN(2,5), IF(B14="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="N14" s="4">
-        <f ca="1">IF(B14="REGULAR", RANDBETWEEN(1,5), IF(B14="ESE", RANDBETWEEN(1,3), IF(B14="ESOL", RANDBETWEEN(2,5), IF(B14="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="P14" s="17" t="str">
+      <c r="K18" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="P18" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="3">
-        <v>7836238288</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4">
-        <v>96</v>
-      </c>
-      <c r="F15" s="4">
-        <v>60</v>
-      </c>
-      <c r="G15" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>73.666666666666671</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f>IF(E15&gt;=90,"A",IF(E15&gt;=80,"B",IF(E15&gt;=70,"C",IF(E15&gt;=60,"D","F"))))</f>
-        <v>A</v>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="K15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L15" s="4">
-        <f ca="1">IF(B15="REGULAR", RANDBETWEEN(1,5),
- IF(B15="ESE", RANDBETWEEN(1,3),
- IF(B15="ESOL", RANDBETWEEN(2,5),
- IF(B15="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <f ca="1">IF(B15="REGULAR", RANDBETWEEN(1,5), IF(B15="ESE", RANDBETWEEN(1,3), IF(B15="ESOL", RANDBETWEEN(2,5), IF(B15="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <f ca="1">IF(B15="REGULAR", RANDBETWEEN(1,5), IF(B15="ESE", RANDBETWEEN(1,3), IF(B15="ESOL", RANDBETWEEN(2,5), IF(B15="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="O15" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="P15" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="3">
-        <v>6107048882</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4">
-        <v>83</v>
-      </c>
-      <c r="E16" s="4">
-        <v>91</v>
-      </c>
-      <c r="F16" s="4">
-        <v>10</v>
-      </c>
-      <c r="G16" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>61.333333333333336</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f>IF(E16&gt;=90,"A",IF(E16&gt;=80,"B",IF(E16&gt;=70,"C",IF(E16&gt;=60,"D","F"))))</f>
-        <v>A</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>D</v>
-      </c>
-      <c r="L16" s="4">
-        <f ca="1">IF(B16="REGULAR", RANDBETWEEN(1,5),
- IF(B16="ESE", RANDBETWEEN(1,3),
- IF(B16="ESOL", RANDBETWEEN(2,5),
- IF(B16="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <f ca="1">IF(B16="REGULAR", RANDBETWEEN(1,5), IF(B16="ESE", RANDBETWEEN(1,3), IF(B16="ESOL", RANDBETWEEN(2,5), IF(B16="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="N16" s="4">
-        <f ca="1">IF(B16="REGULAR", RANDBETWEEN(1,5), IF(B16="ESE", RANDBETWEEN(1,3), IF(B16="ESOL", RANDBETWEEN(2,5), IF(B16="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O16" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="P16" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="3">
-        <v>1129763904</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4">
-        <v>95</v>
-      </c>
-      <c r="E17" s="4">
-        <v>84</v>
-      </c>
-      <c r="F17" s="4">
-        <v>58</v>
-      </c>
-      <c r="G17" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>79</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f>IF(E17&gt;=90,"A",IF(E17&gt;=80,"B",IF(E17&gt;=70,"C",IF(E17&gt;=60,"D","F"))))</f>
-        <v>B</v>
-      </c>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="K17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L17" s="4">
-        <f ca="1">IF(B17="REGULAR", RANDBETWEEN(1,5),
- IF(B17="ESE", RANDBETWEEN(1,3),
- IF(B17="ESOL", RANDBETWEEN(2,5),
- IF(B17="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="M17" s="4">
-        <f ca="1">IF(B17="REGULAR", RANDBETWEEN(1,5), IF(B17="ESE", RANDBETWEEN(1,3), IF(B17="ESOL", RANDBETWEEN(2,5), IF(B17="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="N17" s="4">
-        <f ca="1">IF(B17="REGULAR", RANDBETWEEN(1,5), IF(B17="ESE", RANDBETWEEN(1,3), IF(B17="ESOL", RANDBETWEEN(2,5), IF(B17="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="O17" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="P17" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="3">
-        <v>5551397430</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4">
+    <row r="19" spans="1:16">
+      <c r="A19" s="2">
+        <v>8151299873</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3">
         <v>78</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="3">
         <v>93</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="3">
         <v>62</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="H19" s="4" t="str">
+        <f t="shared" ref="H19:H26" si="9">IF(D19&gt;=90,"A",IF(D19&gt;=80,"B",IF(D19&gt;=70,"C",IF(D19&gt;=60,"D","F"))))</f>
         <v>C</v>
       </c>
-      <c r="I18" s="5" t="str">
-        <f>IF(E18&gt;=90,"A",IF(E18&gt;=80,"B",IF(E18&gt;=70,"C",IF(E18&gt;=60,"D","F"))))</f>
+      <c r="I19" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J19" s="4" t="str">
+        <f t="shared" ref="J19:J26" si="10">IF(F19&gt;=90,"A",IF(F19&gt;=80,"B",IF(F19&gt;=70,"C",IF(F19&gt;=60,"D","F"))))</f>
         <v>D</v>
       </c>
-      <c r="K18" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K19" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L18" s="4">
-        <f ca="1">IF(B18="REGULAR", RANDBETWEEN(1,5),
- IF(B18="ESE", RANDBETWEEN(1,3),
- IF(B18="ESOL", RANDBETWEEN(2,5),
- IF(B18="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-      <c r="M18" s="4">
-        <f ca="1">IF(B18="REGULAR", RANDBETWEEN(1,5), IF(B18="ESE", RANDBETWEEN(1,3), IF(B18="ESOL", RANDBETWEEN(2,5), IF(B18="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="N18" s="4">
-        <f ca="1">IF(B18="REGULAR", RANDBETWEEN(1,5), IF(B18="ESE", RANDBETWEEN(1,3), IF(B18="ESOL", RANDBETWEEN(2,5), IF(B18="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="P18" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+      <c r="O19" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="P19" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>D</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="3">
-        <v>8151299873</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="2">
+        <v>4712247235</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="3">
         <v>78</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="3">
         <v>93</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="3">
         <v>62</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" ref="H19:H26" si="5">IF(D19&gt;=90,"A",IF(D19&gt;=80,"B",IF(D19&gt;=70,"C",IF(D19&gt;=60,"D","F"))))</f>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="I19" s="5" t="str">
-        <f>IF(E19&gt;=90,"A",IF(E19&gt;=80,"B",IF(E19&gt;=70,"C",IF(E19&gt;=60,"D","F"))))</f>
+      <c r="I20" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J19" s="5" t="str">
-        <f t="shared" ref="J19:J26" si="6">IF(F19&gt;=90,"A",IF(F19&gt;=80,"B",IF(F19&gt;=70,"C",IF(F19&gt;=60,"D","F"))))</f>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="K19" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K20" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L19" s="4">
-        <f ca="1">IF(B19="REGULAR", RANDBETWEEN(1,5),
- IF(B19="ESE", RANDBETWEEN(1,3),
- IF(B19="ESOL", RANDBETWEEN(2,5),
- IF(B19="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L20" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="M19" s="4">
-        <f ca="1">IF(B19="REGULAR", RANDBETWEEN(1,5), IF(B19="ESE", RANDBETWEEN(1,3), IF(B19="ESOL", RANDBETWEEN(2,5), IF(B19="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
-        <f ca="1">IF(B19="REGULAR", RANDBETWEEN(1,5), IF(B19="ESE", RANDBETWEEN(1,3), IF(B19="ESOL", RANDBETWEEN(2,5), IF(B19="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="P19" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
+      <c r="M20" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="P20" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="3">
-        <v>4712247235</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="4">
+    <row r="21" spans="1:16">
+      <c r="A21" s="2">
+        <v>6817786384</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3">
         <v>78</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="3">
         <v>93</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="3">
         <v>62</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="I20" s="5" t="str">
-        <f>IF(E20&gt;=90,"A",IF(E20&gt;=80,"B",IF(E20&gt;=70,"C",IF(E20&gt;=60,"D","F"))))</f>
+      <c r="I21" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J20" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="K20" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K21" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L20" s="4">
-        <f ca="1">IF(B20="REGULAR", RANDBETWEEN(1,5),
- IF(B20="ESE", RANDBETWEEN(1,3),
- IF(B20="ESOL", RANDBETWEEN(2,5),
- IF(B20="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <f ca="1">IF(B20="REGULAR", RANDBETWEEN(1,5), IF(B20="ESE", RANDBETWEEN(1,3), IF(B20="ESOL", RANDBETWEEN(2,5), IF(B20="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N20" s="4">
-        <f ca="1">IF(B20="REGULAR", RANDBETWEEN(1,5), IF(B20="ESE", RANDBETWEEN(1,3), IF(B20="ESOL", RANDBETWEEN(2,5), IF(B20="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O20" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="P20" s="17" t="str">
+      <c r="L21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="P21" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>C</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="3">
-        <v>6817786384</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="2">
+        <v>9342972668</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3">
         <v>78</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="3">
         <v>93</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="3">
         <v>62</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="I21" s="5" t="str">
-        <f>IF(E21&gt;=90,"A",IF(E21&gt;=80,"B",IF(E21&gt;=70,"C",IF(E21&gt;=60,"D","F"))))</f>
+      <c r="I22" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J21" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="J22" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="K21" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K22" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L21" s="4">
-        <f ca="1">IF(B21="REGULAR", RANDBETWEEN(1,5),
- IF(B21="ESE", RANDBETWEEN(1,3),
- IF(B21="ESOL", RANDBETWEEN(2,5),
- IF(B21="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="M21" s="4">
-        <f ca="1">IF(B21="REGULAR", RANDBETWEEN(1,5), IF(B21="ESE", RANDBETWEEN(1,3), IF(B21="ESOL", RANDBETWEEN(2,5), IF(B21="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L22" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="N21" s="4">
-        <f ca="1">IF(B21="REGULAR", RANDBETWEEN(1,5), IF(B21="ESE", RANDBETWEEN(1,3), IF(B21="ESOL", RANDBETWEEN(2,5), IF(B21="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="M22" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
-      <c r="O21" s="13">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O22" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="P22" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2">
+        <v>5247528528</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="P21" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="3">
-        <v>9342972668</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3">
         <v>78</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="3">
         <v>93</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="3">
         <v>62</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="I22" s="5" t="str">
-        <f>IF(E22&gt;=90,"A",IF(E22&gt;=80,"B",IF(E22&gt;=70,"C",IF(E22&gt;=60,"D","F"))))</f>
+      <c r="I23" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J22" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="K22" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K23" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L22" s="4">
-        <f ca="1">IF(B22="REGULAR", RANDBETWEEN(1,5),
- IF(B22="ESE", RANDBETWEEN(1,3),
- IF(B22="ESOL", RANDBETWEEN(2,5),
- IF(B22="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="M22" s="4">
-        <f ca="1">IF(B22="REGULAR", RANDBETWEEN(1,5), IF(B22="ESE", RANDBETWEEN(1,3), IF(B22="ESOL", RANDBETWEEN(2,5), IF(B22="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N22" s="4">
-        <f ca="1">IF(B22="REGULAR", RANDBETWEEN(1,5), IF(B22="ESE", RANDBETWEEN(1,3), IF(B22="ESOL", RANDBETWEEN(2,5), IF(B22="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O22" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="P22" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>B</v>
+      <c r="N23" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="P23" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="3">
-        <v>5247528528</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4">
+    <row r="24" spans="1:16">
+      <c r="A24" s="2">
+        <v>5311667857</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3">
         <v>78</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="3">
         <v>93</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="3">
         <v>62</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="I23" s="5" t="str">
-        <f>IF(E23&gt;=90,"A",IF(E23&gt;=80,"B",IF(E23&gt;=70,"C",IF(E23&gt;=60,"D","F"))))</f>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J23" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="K23" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K24" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L23" s="4">
-        <f ca="1">IF(B23="REGULAR", RANDBETWEEN(1,5),
- IF(B23="ESE", RANDBETWEEN(1,3),
- IF(B23="ESOL", RANDBETWEEN(2,5),
- IF(B23="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L24" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="M23" s="4">
-        <f ca="1">IF(B23="REGULAR", RANDBETWEEN(1,5), IF(B23="ESE", RANDBETWEEN(1,3), IF(B23="ESOL", RANDBETWEEN(2,5), IF(B23="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N23" s="4">
-        <f ca="1">IF(B23="REGULAR", RANDBETWEEN(1,5), IF(B23="ESE", RANDBETWEEN(1,3), IF(B23="ESOL", RANDBETWEEN(2,5), IF(B23="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="O23" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="P23" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="M24" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="P24" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>B</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="3">
-        <v>5311667857</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="2">
+        <v>9792546523</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="3">
         <v>78</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="3">
         <v>93</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="3">
         <v>62</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="I24" s="5" t="str">
-        <f>IF(E24&gt;=90,"A",IF(E24&gt;=80,"B",IF(E24&gt;=70,"C",IF(E24&gt;=60,"D","F"))))</f>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J24" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="K24" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K25" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L24" s="4">
-        <f ca="1">IF(B24="REGULAR", RANDBETWEEN(1,5),
- IF(B24="ESE", RANDBETWEEN(1,3),
- IF(B24="ESOL", RANDBETWEEN(2,5),
- IF(B24="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L25" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="M24" s="4">
-        <f ca="1">IF(B24="REGULAR", RANDBETWEEN(1,5), IF(B24="ESE", RANDBETWEEN(1,3), IF(B24="ESOL", RANDBETWEEN(2,5), IF(B24="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="N24" s="4">
-        <f ca="1">IF(B24="REGULAR", RANDBETWEEN(1,5), IF(B24="ESE", RANDBETWEEN(1,3), IF(B24="ESOL", RANDBETWEEN(2,5), IF(B24="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O24" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="P24" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+      <c r="N25" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="P25" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="3">
-        <v>9792546523</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="2">
+        <v>2485651197</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="3">
         <v>78</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="3">
         <v>93</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="3">
         <v>62</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="I25" s="5" t="str">
-        <f>IF(E25&gt;=90,"A",IF(E25&gt;=80,"B",IF(E25&gt;=70,"C",IF(E25&gt;=60,"D","F"))))</f>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J25" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="K25" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K26" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L25" s="4">
-        <f ca="1">IF(B25="REGULAR", RANDBETWEEN(1,5),
- IF(B25="ESE", RANDBETWEEN(1,3),
- IF(B25="ESOL", RANDBETWEEN(2,5),
- IF(B25="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="M25" s="4">
-        <f ca="1">IF(B25="REGULAR", RANDBETWEEN(1,5), IF(B25="ESE", RANDBETWEEN(1,3), IF(B25="ESOL", RANDBETWEEN(2,5), IF(B25="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L26" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="N25" s="4">
-        <f ca="1">IF(B25="REGULAR", RANDBETWEEN(1,5), IF(B25="ESE", RANDBETWEEN(1,3), IF(B25="ESOL", RANDBETWEEN(2,5), IF(B25="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="M26" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="O25" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="P25" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="N26" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="P26" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="3">
-        <v>2485651197</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="4">
+    <row r="27" spans="1:16">
+      <c r="A27" s="2">
+        <v>1033425515</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3">
         <v>78</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="3">
         <v>93</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="3">
         <v>62</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H27" s="4" t="str">
+        <f t="shared" ref="H27:H31" si="11">IF(D27&gt;=90,"A",IF(D27&gt;=80,"B",IF(D27&gt;=70,"C",IF(D27&gt;=60,"D","F"))))</f>
         <v>C</v>
       </c>
-      <c r="I26" s="5" t="str">
-        <f>IF(E26&gt;=90,"A",IF(E26&gt;=80,"B",IF(E26&gt;=70,"C",IF(E26&gt;=60,"D","F"))))</f>
+      <c r="I27" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J26" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="J27" s="4" t="str">
+        <f t="shared" ref="J27:J31" si="12">IF(F27&gt;=90,"A",IF(F27&gt;=80,"B",IF(F27&gt;=70,"C",IF(F27&gt;=60,"D","F"))))</f>
         <v>D</v>
       </c>
-      <c r="K26" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K27" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L26" s="4">
-        <f ca="1">IF(B26="REGULAR", RANDBETWEEN(1,5),
- IF(B26="ESE", RANDBETWEEN(1,3),
- IF(B26="ESOL", RANDBETWEEN(2,5),
- IF(B26="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L27" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="M26" s="4">
-        <f ca="1">IF(B26="REGULAR", RANDBETWEEN(1,5), IF(B26="ESE", RANDBETWEEN(1,3), IF(B26="ESOL", RANDBETWEEN(2,5), IF(B26="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="N26" s="4">
-        <f ca="1">IF(B26="REGULAR", RANDBETWEEN(1,5), IF(B26="ESE", RANDBETWEEN(1,3), IF(B26="ESOL", RANDBETWEEN(2,5), IF(B26="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="O26" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="P26" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>B</v>
+      <c r="M27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="P27" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="3">
-        <v>1033425515</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="2">
+        <v>1832847443</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="3">
         <v>78</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="3">
         <v>93</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="3">
         <v>62</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" ref="H27:H31" si="7">IF(D27&gt;=90,"A",IF(D27&gt;=80,"B",IF(D27&gt;=70,"C",IF(D27&gt;=60,"D","F"))))</f>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="I27" s="5" t="str">
-        <f>IF(E27&gt;=90,"A",IF(E27&gt;=80,"B",IF(E27&gt;=70,"C",IF(E27&gt;=60,"D","F"))))</f>
+      <c r="I28" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J27" s="5" t="str">
-        <f t="shared" ref="J27:J31" si="8">IF(F27&gt;=90,"A",IF(F27&gt;=80,"B",IF(F27&gt;=70,"C",IF(F27&gt;=60,"D","F"))))</f>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
-      <c r="K27" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K28" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L27" s="4">
-        <f ca="1">IF(B27="REGULAR", RANDBETWEEN(1,5),
- IF(B27="ESE", RANDBETWEEN(1,3),
- IF(B27="ESOL", RANDBETWEEN(2,5),
- IF(B27="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="M27" s="4">
-        <f ca="1">IF(B27="REGULAR", RANDBETWEEN(1,5), IF(B27="ESE", RANDBETWEEN(1,3), IF(B27="ESOL", RANDBETWEEN(2,5), IF(B27="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L28" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-      <c r="N27" s="4">
-        <f ca="1">IF(B27="REGULAR", RANDBETWEEN(1,5), IF(B27="ESE", RANDBETWEEN(1,3), IF(B27="ESOL", RANDBETWEEN(2,5), IF(B27="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O27" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="P27" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+      <c r="N28" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="P28" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="3">
-        <v>1832847443</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="4">
+    <row r="29" spans="1:16">
+      <c r="A29" s="2">
+        <v>4291260922</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
         <v>78</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="3">
         <v>93</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="3">
         <v>62</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H29" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="I28" s="5" t="str">
-        <f>IF(E28&gt;=90,"A",IF(E28&gt;=80,"B",IF(E28&gt;=70,"C",IF(E28&gt;=60,"D","F"))))</f>
+      <c r="I29" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J28" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
-      <c r="K28" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K29" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L28" s="4">
-        <f ca="1">IF(B28="REGULAR", RANDBETWEEN(1,5),
- IF(B28="ESE", RANDBETWEEN(1,3),
- IF(B28="ESOL", RANDBETWEEN(2,5),
- IF(B28="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="M28" s="4">
-        <f ca="1">IF(B28="REGULAR", RANDBETWEEN(1,5), IF(B28="ESE", RANDBETWEEN(1,3), IF(B28="ESOL", RANDBETWEEN(2,5), IF(B28="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="N28" s="4">
-        <f ca="1">IF(B28="REGULAR", RANDBETWEEN(1,5), IF(B28="ESE", RANDBETWEEN(1,3), IF(B28="ESOL", RANDBETWEEN(2,5), IF(B28="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>3</v>
-      </c>
-      <c r="O28" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="P28" s="17" t="str">
+      <c r="L29" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="P29" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="3">
-        <v>4291260922</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="30" spans="1:16">
+      <c r="A30" s="2">
+        <v>7790566213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="3">
         <v>78</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="3">
         <v>93</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="3">
         <v>62</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H30" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="I29" s="5" t="str">
-        <f>IF(E29&gt;=90,"A",IF(E29&gt;=80,"B",IF(E29&gt;=70,"C",IF(E29&gt;=60,"D","F"))))</f>
+      <c r="I30" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J29" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
-      <c r="K29" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K30" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L29" s="4">
-        <f ca="1">IF(B29="REGULAR", RANDBETWEEN(1,5),
- IF(B29="ESE", RANDBETWEEN(1,3),
- IF(B29="ESOL", RANDBETWEEN(2,5),
- IF(B29="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>5</v>
-      </c>
-      <c r="M29" s="4">
-        <f ca="1">IF(B29="REGULAR", RANDBETWEEN(1,5), IF(B29="ESE", RANDBETWEEN(1,3), IF(B29="ESOL", RANDBETWEEN(2,5), IF(B29="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="N29" s="4">
-        <f ca="1">IF(B29="REGULAR", RANDBETWEEN(1,5), IF(B29="ESE", RANDBETWEEN(1,3), IF(B29="ESOL", RANDBETWEEN(2,5), IF(B29="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="O29" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="P29" s="17" t="str">
+      <c r="L30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>3</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="P30" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="3">
-        <v>7790566213</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" s="2">
+        <v>1398608527</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="3">
         <v>78</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="3">
         <v>93</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="3">
         <v>62</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="12">
         <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
         <v>77.666666666666671</v>
       </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="H31" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="I30" s="5" t="str">
-        <f>IF(E30&gt;=90,"A",IF(E30&gt;=80,"B",IF(E30&gt;=70,"C",IF(E30&gt;=60,"D","F"))))</f>
+      <c r="I31" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J30" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="J31" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
-      <c r="K30" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K31" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="L30" s="4">
-        <f ca="1">IF(B30="REGULAR", RANDBETWEEN(1,5),
- IF(B30="ESE", RANDBETWEEN(1,3),
- IF(B30="ESOL", RANDBETWEEN(2,5),
- IF(B30="GIFTED", RANDBETWEEN(3,5),""))))</f>
+      <c r="L31" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
-      <c r="M30" s="4">
-        <f ca="1">IF(B30="REGULAR", RANDBETWEEN(1,5), IF(B30="ESE", RANDBETWEEN(1,3), IF(B30="ESOL", RANDBETWEEN(2,5), IF(B30="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>4</v>
-      </c>
-      <c r="N30" s="4">
-        <f ca="1">IF(B30="REGULAR", RANDBETWEEN(1,5), IF(B30="ESE", RANDBETWEEN(1,3), IF(B30="ESOL", RANDBETWEEN(2,5), IF(B30="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="O30" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="P30" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="3">
-        <v>1398608527</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="4">
-        <v>78</v>
-      </c>
-      <c r="E31" s="4">
-        <v>93</v>
-      </c>
-      <c r="F31" s="4">
-        <v>62</v>
-      </c>
-      <c r="G31" s="13">
-        <f>AVERAGE(SampleData[[#This Row],[AvgLR1]:[AvgLR3]])</f>
-        <v>77.666666666666671</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>C</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f>IF(E31&gt;=90,"A",IF(E31&gt;=80,"B",IF(E31&gt;=70,"C",IF(E31&gt;=60,"D","F"))))</f>
-        <v>A</v>
-      </c>
-      <c r="J31" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>D</v>
-      </c>
-      <c r="K31" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L31" s="4">
-        <f ca="1">IF(B31="REGULAR", RANDBETWEEN(1,5),
- IF(B31="ESE", RANDBETWEEN(1,3),
- IF(B31="ESOL", RANDBETWEEN(2,5),
- IF(B31="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="M31" s="4">
-        <f ca="1">IF(B31="REGULAR", RANDBETWEEN(1,5), IF(B31="ESE", RANDBETWEEN(1,3), IF(B31="ESOL", RANDBETWEEN(2,5), IF(B31="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>1</v>
-      </c>
-      <c r="N31" s="4">
-        <f ca="1">IF(B31="REGULAR", RANDBETWEEN(1,5), IF(B31="ESE", RANDBETWEEN(1,3), IF(B31="ESOL", RANDBETWEEN(2,5), IF(B31="GIFTED", RANDBETWEEN(3,5),""))))</f>
-        <v>2</v>
-      </c>
-      <c r="O31" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="P31" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+      <c r="M31" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="P31" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
@@ -32679,66 +32577,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -32766,102 +32664,102 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -32874,26 +32772,26 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -32955,7 +32853,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -32963,47 +32861,47 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
@@ -33011,51 +32909,51 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
@@ -33063,55 +32961,55 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B27" t="s">
@@ -33119,55 +33017,55 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="V38" s="9" t="s">
+      <c r="V38" s="8" t="s">
         <v>56</v>
       </c>
       <c r="W38" t="s">
@@ -33175,47 +33073,47 @@
       </c>
     </row>
     <row r="39" spans="1:23">
-      <c r="V39" s="10" t="s">
+      <c r="V39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:23">
-      <c r="V40" s="10" t="s">
+      <c r="V40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:23">
-      <c r="V41" s="10" t="s">
+      <c r="V41" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:23">
-      <c r="V42" s="10" t="s">
+      <c r="V42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:23">
-      <c r="V43" s="10" t="s">
+      <c r="V43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="22:23">
-      <c r="V53" s="9" t="s">
+      <c r="V53" s="8" t="s">
         <v>56</v>
       </c>
       <c r="W53" t="s">
@@ -33223,31 +33121,31 @@
       </c>
     </row>
     <row r="54" spans="22:23">
-      <c r="V54" s="10" t="s">
+      <c r="V54" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W54" s="2">
+      <c r="W54">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="22:23">
-      <c r="V55" s="10" t="s">
+      <c r="V55" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W55" s="2">
+      <c r="W55">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="22:23">
-      <c r="V56" s="10" t="s">
+      <c r="V56" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="2">
+      <c r="W56">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="22:23">
-      <c r="V69" s="9" t="s">
+      <c r="V69" s="8" t="s">
         <v>56</v>
       </c>
       <c r="W69" t="s">
@@ -33255,34 +33153,34 @@
       </c>
     </row>
     <row r="70" spans="22:23">
-      <c r="V70" s="10" t="s">
+      <c r="V70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W70" s="2">
+      <c r="W70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="22:23">
-      <c r="V71" s="10" t="s">
+      <c r="V71" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="W71" s="2">
+      <c r="W71">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="22:23">
-      <c r="V72" s="10" t="s">
+      <c r="V72" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W72" s="2">
+      <c r="W72">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="22:23">
-      <c r="V73" s="10" t="s">
+      <c r="V73" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W73" s="2">
+      <c r="W73">
         <v>30</v>
       </c>
     </row>
@@ -33306,7 +33204,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -33324,8 +33222,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
